--- a/CubeMxProject/Pinout.xlsx
+++ b/CubeMxProject/Pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OvcharkaBoard\CubeMxProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C5C017-453F-4C8C-8FCD-0F80E7FC298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D8E046-B2EC-4744-B692-D2F94B5C4473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-4035" windowWidth="13740" windowHeight="23520" xr2:uid="{76360457-53EE-415F-864A-A007016E408F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>Pin Nb</t>
   </si>
@@ -269,82 +269,100 @@
     <t>PB4</t>
   </si>
   <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>DIS1</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>DIR2</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>DIS2</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>TIM4_CH3</t>
+  </si>
+  <si>
+    <t>ENC2_CH1_F</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>TIM4_CH4</t>
+  </si>
+  <si>
+    <t>ENC1_CH1_F</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>VSSA</t>
+  </si>
+  <si>
+    <t>VDDA</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>BOOT0</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>NFAULTA</t>
+  </si>
+  <si>
+    <t>NFAULTB</t>
+  </si>
+  <si>
+    <t>BRIDGESLEEP1</t>
+  </si>
+  <si>
+    <t>BRIDGESLEEP2</t>
+  </si>
+  <si>
     <t>DIR1</t>
   </si>
   <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>DIS1</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>DIR2</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>DIS2</t>
-  </si>
-  <si>
-    <t>PB8</t>
-  </si>
-  <si>
-    <t>TIM4_CH3</t>
-  </si>
-  <si>
-    <t>ENC2_CH1_F</t>
-  </si>
-  <si>
-    <t>PB9</t>
-  </si>
-  <si>
-    <t>TIM4_CH4</t>
-  </si>
-  <si>
-    <t>ENC1_CH1_F</t>
-  </si>
-  <si>
-    <t>VBAT</t>
-  </si>
-  <si>
-    <t>NRST</t>
-  </si>
-  <si>
-    <t>RESET</t>
-  </si>
-  <si>
-    <t>VSSA</t>
-  </si>
-  <si>
-    <t>VDDA</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>3V3</t>
-  </si>
-  <si>
-    <t>VSS</t>
-  </si>
-  <si>
-    <t>VDD</t>
-  </si>
-  <si>
-    <t>BOOT0</t>
-  </si>
-  <si>
-    <t>USART1_TX</t>
-  </si>
-  <si>
-    <t>USART1_RX</t>
-  </si>
-  <si>
-    <t>SYS_WKUP</t>
+    <t>DRVOFF2</t>
+  </si>
+  <si>
+    <t>DRVOFF1</t>
+  </si>
+  <si>
+    <t>RS485_Ctrl</t>
   </si>
 </sst>
 </file>
@@ -361,12 +379,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -381,8 +405,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -717,19 +742,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC86E9F-5A13-4F20-9EAA-AEB8F4BF569B}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -742,34 +771,35 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2">
+        <v>89</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -782,14 +812,20 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
       <c r="H3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -799,14 +835,15 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -816,14 +853,15 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -833,17 +871,18 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="F6">
         <v>5</v>
       </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -853,77 +892,78 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="G7">
+      <c r="F7">
         <v>6</v>
       </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
         <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
       </c>
       <c r="H8" t="s">
         <v>91</v>
       </c>
-      <c r="I8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9">
+        <v>94</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
       <c r="H9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10">
+        <v>95</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
       <c r="H10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -936,17 +976,17 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="G11">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -959,14 +999,17 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="G12">
+      <c r="F12">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -979,20 +1022,20 @@
       <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="G13">
+      <c r="F13">
         <v>12</v>
       </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
       <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
         <v>22</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1005,20 +1048,20 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="G14">
+      <c r="F14">
         <v>13</v>
       </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" t="s">
+      <c r="I14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1031,14 +1074,20 @@
       <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="G15">
+      <c r="F15">
         <v>14</v>
       </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1048,14 +1097,17 @@
       <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="G16">
+      <c r="F16">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1065,14 +1117,17 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="G17">
+      <c r="F17">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1082,14 +1137,17 @@
       <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="G18">
+      <c r="F18">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1102,20 +1160,20 @@
       <c r="D19" t="s">
         <v>37</v>
       </c>
-      <c r="G19">
+      <c r="F19">
         <v>18</v>
       </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
       <c r="H19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" t="s">
         <v>36</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1128,20 +1186,20 @@
       <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="G20">
+      <c r="F20">
         <v>19</v>
       </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
       <c r="H20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s">
         <v>39</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1154,14 +1212,20 @@
       <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="G21">
+      <c r="F21">
         <v>20</v>
       </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1174,14 +1238,20 @@
       <c r="D22" t="s">
         <v>44</v>
       </c>
-      <c r="G22">
+      <c r="F22">
         <v>21</v>
       </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1194,42 +1264,55 @@
       <c r="D23" t="s">
         <v>46</v>
       </c>
-      <c r="G23">
+      <c r="F23">
         <v>22</v>
       </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
       <c r="H23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24">
+        <v>96</v>
+      </c>
+      <c r="F24">
         <v>23</v>
       </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
       <c r="H24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25">
+        <v>97</v>
+      </c>
+      <c r="F25">
         <v>24</v>
       </c>
+      <c r="G25" t="s">
+        <v>97</v>
+      </c>
       <c r="H25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1242,14 +1325,20 @@
       <c r="D26" t="s">
         <v>49</v>
       </c>
-      <c r="G26">
+      <c r="F26">
         <v>25</v>
       </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
       <c r="H26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1262,14 +1351,20 @@
       <c r="D27" t="s">
         <v>51</v>
       </c>
-      <c r="G27">
+      <c r="F27">
         <v>26</v>
       </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
       <c r="H27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1282,14 +1377,20 @@
       <c r="D28" t="s">
         <v>53</v>
       </c>
-      <c r="G28">
+      <c r="F28">
         <v>27</v>
       </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
       <c r="H28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1302,14 +1403,20 @@
       <c r="D29" t="s">
         <v>55</v>
       </c>
-      <c r="G29">
+      <c r="F29">
         <v>28</v>
       </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
       <c r="H29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1322,20 +1429,20 @@
       <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="G30">
+      <c r="F30">
         <v>29</v>
       </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
       <c r="H30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" t="s">
         <v>57</v>
       </c>
-      <c r="J30" t="s">
+      <c r="I30" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1348,20 +1455,20 @@
       <c r="D31" t="s">
         <v>61</v>
       </c>
-      <c r="G31">
+      <c r="F31">
         <v>30</v>
       </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
       <c r="H31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" t="s">
         <v>60</v>
       </c>
-      <c r="J31" t="s">
+      <c r="I31" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1374,14 +1481,20 @@
       <c r="D32" t="s">
         <v>63</v>
       </c>
-      <c r="G32">
+      <c r="F32">
         <v>31</v>
       </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
       <c r="H32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1391,14 +1504,20 @@
       <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="G33">
+      <c r="F33">
         <v>32</v>
       </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
       <c r="H33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1408,14 +1527,17 @@
       <c r="C34" t="s">
         <v>67</v>
       </c>
-      <c r="G34">
+      <c r="F34">
         <v>33</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1425,45 +1547,45 @@
       <c r="C35" t="s">
         <v>69</v>
       </c>
-      <c r="G35">
+      <c r="F35">
         <v>34</v>
       </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
       <c r="H35" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36">
+        <v>96</v>
+      </c>
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="H36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37">
+        <v>97</v>
+      </c>
+      <c r="F37">
         <v>36</v>
       </c>
-      <c r="H37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1473,17 +1595,17 @@
       <c r="C38" t="s">
         <v>71</v>
       </c>
-      <c r="G38">
+      <c r="F38">
         <v>37</v>
       </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
       <c r="H38" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1496,20 +1618,20 @@
       <c r="D39" t="s">
         <v>73</v>
       </c>
-      <c r="G39">
+      <c r="F39">
         <v>38</v>
       </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
       <c r="H39" t="s">
-        <v>72</v>
-      </c>
-      <c r="I39" t="s">
         <v>16</v>
       </c>
-      <c r="J39" t="s">
+      <c r="I39" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1522,20 +1644,20 @@
       <c r="D40" t="s">
         <v>75</v>
       </c>
-      <c r="G40">
+      <c r="F40">
         <v>39</v>
       </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
       <c r="H40" t="s">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s">
         <v>19</v>
       </c>
-      <c r="J40" t="s">
+      <c r="I40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1545,186 +1667,198 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
-      <c r="D41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41">
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="F41">
         <v>40</v>
       </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
       <c r="H41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42">
+        <v>78</v>
+      </c>
+      <c r="F42">
         <v>41</v>
       </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
       <c r="H42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43">
+        <v>80</v>
+      </c>
+      <c r="F43">
         <v>42</v>
       </c>
+      <c r="G43" t="s">
+        <v>79</v>
+      </c>
       <c r="H43" t="s">
-        <v>80</v>
-      </c>
-      <c r="I43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44">
+        <v>82</v>
+      </c>
+      <c r="F44">
         <v>43</v>
       </c>
+      <c r="G44" t="s">
+        <v>81</v>
+      </c>
       <c r="H44" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45">
+        <v>98</v>
+      </c>
+      <c r="F45">
         <v>44</v>
       </c>
-      <c r="H45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
         <v>84</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>85</v>
       </c>
-      <c r="D46" t="s">
-        <v>86</v>
-      </c>
-      <c r="G46">
+      <c r="F46">
         <v>45</v>
+      </c>
+      <c r="G46" t="s">
+        <v>83</v>
       </c>
       <c r="H46" t="s">
         <v>84</v>
       </c>
-      <c r="I46" t="s">
-        <v>85</v>
-      </c>
-      <c r="J46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
         <v>87</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>88</v>
       </c>
-      <c r="D47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47">
+      <c r="F47">
         <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
       </c>
       <c r="H47" t="s">
         <v>87</v>
       </c>
-      <c r="I47" t="s">
-        <v>88</v>
-      </c>
-      <c r="J47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48">
+        <v>94</v>
+      </c>
+      <c r="F48">
         <v>47</v>
       </c>
+      <c r="G48" t="s">
+        <v>96</v>
+      </c>
       <c r="H48" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49">
+        <v>95</v>
+      </c>
+      <c r="F49">
         <v>48</v>
       </c>
+      <c r="G49" t="s">
+        <v>97</v>
+      </c>
       <c r="H49" t="s">
-        <v>98</v>
-      </c>
-      <c r="I49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
